--- a/connectdb.xlsx
+++ b/connectdb.xlsx
@@ -21,19 +21,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>email</t>
   </si>
+  <si>
+    <t>hermanliran@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -56,16 +67,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,9 +392,14 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/connectdb.xlsx
+++ b/connectdb.xlsx
@@ -22,15 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
-    <t xml:space="preserve">jorjkluni03@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rocketaso@gmail.com</t>
+    <t xml:space="preserve">nevilgreen12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -138,7 +135,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -157,15 +154,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="jorjkluni03@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="rocketaso@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="nevilgreen12@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -185,7 +177,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -211,7 +203,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/connectdb.xlsx
+++ b/connectdb.xlsx
@@ -22,12 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
     <t xml:space="preserve">nevilgreen12@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shmulmaor2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -154,10 +157,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="nevilgreen12@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="shmulmaor2@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -177,7 +185,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -203,7 +211,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
